--- a/data/144/SCB/old/NR0103ENS2010T07Kv.xlsx
+++ b/data/144/SCB/old/NR0103ENS2010T07Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <x:si>
     <x:t>Gross fixed capital formation (ESA2010) by industrial classification NACE Rev. 2, observations and quarter</x:t>
   </x:si>
@@ -517,6 +517,9 @@
     <x:t>2021K2</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K3</x:t>
+  </x:si>
+  <x:si>
     <x:t>F41-F43 construction</x:t>
   </x:si>
   <x:si>
@@ -544,7 +547,7 @@
     <x:t>Current prices, SEK million:</x:t>
   </x:si>
   <x:si>
-    <x:t>20210827 09:30</x:t>
+    <x:t>20211129 09:30</x:t>
   </x:si>
   <x:si>
     <x:t>Constant prices referece year 2020, SEK million:</x:t>
@@ -1013,22 +1016,22 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FL64"/>
+  <x:dimension ref="A1:FM64"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="168" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="169" width="9.130625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:168">
+    <x:row r="1" spans="1:169">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:168">
+    <x:row r="3" spans="1:169">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1527,169 +1530,172 @@
       <x:c r="FL3" s="2" t="s">
         <x:v>166</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:168">
+      <x:c r="FM3" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:169">
       <x:c r="A4" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="S4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="T4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="U4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="V4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="W4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="X4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Y4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Z4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AA4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AB4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AC4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AE4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AF4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AG4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AH4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AI4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AJ4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AK4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AL4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AM4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AN4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AO4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AP4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AQ4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AR4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AS4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AT4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AU4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AV4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AW4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AX4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AY4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AZ4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BA4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BB4" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
         <x:v>1171</x:v>
@@ -2016,186 +2022,189 @@
         <x:v>6869</x:v>
       </x:c>
       <x:c r="FG4" s="4" t="n">
-        <x:v>8678</x:v>
+        <x:v>8733</x:v>
       </x:c>
       <x:c r="FH4" s="4" t="n">
         <x:v>6765</x:v>
       </x:c>
       <x:c r="FI4" s="4" t="n">
-        <x:v>6763</x:v>
+        <x:v>6761</x:v>
       </x:c>
       <x:c r="FJ4" s="4" t="n">
-        <x:v>6010</x:v>
+        <x:v>6005</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>8231</x:v>
+        <x:v>8256</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>8086</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:168">
+        <x:v>8047</x:v>
+      </x:c>
+      <x:c r="FM4" s="4" t="n">
+        <x:v>6978</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:169">
       <x:c r="B5" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="N5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="U5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="V5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="W5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="X5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Y5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Z5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AA5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AB5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AC5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AE5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AF5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AG5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AH5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AI5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AJ5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AK5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AL5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AM5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AN5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AO5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AP5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AQ5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AR5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AS5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AT5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AU5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AV5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AW5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AX5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AY5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AZ5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BA5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BB5" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="BC5" s="4" t="n">
-        <x:v>1858</x:v>
+        <x:v>1857</x:v>
       </x:c>
       <x:c r="BD5" s="4" t="n">
         <x:v>1885</x:v>
@@ -2207,7 +2216,7 @@
         <x:v>1944</x:v>
       </x:c>
       <x:c r="BG5" s="4" t="n">
-        <x:v>2086</x:v>
+        <x:v>2085</x:v>
       </x:c>
       <x:c r="BH5" s="4" t="n">
         <x:v>2141</x:v>
@@ -2228,13 +2237,13 @@
         <x:v>1869</x:v>
       </x:c>
       <x:c r="BN5" s="4" t="n">
-        <x:v>2249</x:v>
+        <x:v>2248</x:v>
       </x:c>
       <x:c r="BO5" s="4" t="n">
         <x:v>2477</x:v>
       </x:c>
       <x:c r="BP5" s="4" t="n">
-        <x:v>2640</x:v>
+        <x:v>2639</x:v>
       </x:c>
       <x:c r="BQ5" s="4" t="n">
         <x:v>2336</x:v>
@@ -2246,7 +2255,7 @@
         <x:v>2987</x:v>
       </x:c>
       <x:c r="BT5" s="4" t="n">
-        <x:v>3497</x:v>
+        <x:v>3496</x:v>
       </x:c>
       <x:c r="BU5" s="4" t="n">
         <x:v>2356</x:v>
@@ -2258,19 +2267,19 @@
         <x:v>3107</x:v>
       </x:c>
       <x:c r="BX5" s="4" t="n">
-        <x:v>3591</x:v>
+        <x:v>3590</x:v>
       </x:c>
       <x:c r="BY5" s="4" t="n">
-        <x:v>3411</x:v>
+        <x:v>3410</x:v>
       </x:c>
       <x:c r="BZ5" s="4" t="n">
-        <x:v>3939</x:v>
+        <x:v>3940</x:v>
       </x:c>
       <x:c r="CA5" s="4" t="n">
         <x:v>4595</x:v>
       </x:c>
       <x:c r="CB5" s="4" t="n">
-        <x:v>4670</x:v>
+        <x:v>4669</x:v>
       </x:c>
       <x:c r="CC5" s="4" t="n">
         <x:v>4544</x:v>
@@ -2285,22 +2294,22 @@
         <x:v>5250</x:v>
       </x:c>
       <x:c r="CG5" s="4" t="n">
-        <x:v>4377</x:v>
+        <x:v>4376</x:v>
       </x:c>
       <x:c r="CH5" s="4" t="n">
         <x:v>4178</x:v>
       </x:c>
       <x:c r="CI5" s="4" t="n">
-        <x:v>4428</x:v>
+        <x:v>4427</x:v>
       </x:c>
       <x:c r="CJ5" s="4" t="n">
         <x:v>4869</x:v>
       </x:c>
       <x:c r="CK5" s="4" t="n">
-        <x:v>3631</x:v>
+        <x:v>3630</x:v>
       </x:c>
       <x:c r="CL5" s="4" t="n">
-        <x:v>3372</x:v>
+        <x:v>3373</x:v>
       </x:c>
       <x:c r="CM5" s="4" t="n">
         <x:v>4027</x:v>
@@ -2312,25 +2321,25 @@
         <x:v>3883</x:v>
       </x:c>
       <x:c r="CP5" s="4" t="n">
-        <x:v>3668</x:v>
+        <x:v>3667</x:v>
       </x:c>
       <x:c r="CQ5" s="4" t="n">
-        <x:v>5256</x:v>
+        <x:v>5255</x:v>
       </x:c>
       <x:c r="CR5" s="4" t="n">
-        <x:v>4952</x:v>
+        <x:v>4951</x:v>
       </x:c>
       <x:c r="CS5" s="4" t="n">
-        <x:v>4161</x:v>
+        <x:v>4160</x:v>
       </x:c>
       <x:c r="CT5" s="4" t="n">
-        <x:v>3836</x:v>
+        <x:v>3838</x:v>
       </x:c>
       <x:c r="CU5" s="4" t="n">
         <x:v>4424</x:v>
       </x:c>
       <x:c r="CV5" s="4" t="n">
-        <x:v>4588</x:v>
+        <x:v>4587</x:v>
       </x:c>
       <x:c r="CW5" s="4" t="n">
         <x:v>3889</x:v>
@@ -2339,7 +2348,7 @@
         <x:v>4259</x:v>
       </x:c>
       <x:c r="CY5" s="4" t="n">
-        <x:v>4884</x:v>
+        <x:v>4883</x:v>
       </x:c>
       <x:c r="CZ5" s="4" t="n">
         <x:v>5091</x:v>
@@ -2348,10 +2357,10 @@
         <x:v>4264</x:v>
       </x:c>
       <x:c r="DB5" s="4" t="n">
-        <x:v>4632</x:v>
+        <x:v>4631</x:v>
       </x:c>
       <x:c r="DC5" s="4" t="n">
-        <x:v>5461</x:v>
+        <x:v>5460</x:v>
       </x:c>
       <x:c r="DD5" s="4" t="n">
         <x:v>5861</x:v>
@@ -2360,34 +2369,34 @@
         <x:v>5715</x:v>
       </x:c>
       <x:c r="DF5" s="4" t="n">
-        <x:v>5602</x:v>
+        <x:v>5601</x:v>
       </x:c>
       <x:c r="DG5" s="4" t="n">
         <x:v>7263</x:v>
       </x:c>
       <x:c r="DH5" s="4" t="n">
-        <x:v>5671</x:v>
+        <x:v>5670</x:v>
       </x:c>
       <x:c r="DI5" s="4" t="n">
-        <x:v>5901</x:v>
+        <x:v>5900</x:v>
       </x:c>
       <x:c r="DJ5" s="4" t="n">
         <x:v>5617</x:v>
       </x:c>
       <x:c r="DK5" s="4" t="n">
-        <x:v>9590</x:v>
+        <x:v>9589</x:v>
       </x:c>
       <x:c r="DL5" s="4" t="n">
         <x:v>7650</x:v>
       </x:c>
       <x:c r="DM5" s="4" t="n">
-        <x:v>7533</x:v>
+        <x:v>7532</x:v>
       </x:c>
       <x:c r="DN5" s="4" t="n">
         <x:v>6057</x:v>
       </x:c>
       <x:c r="DO5" s="4" t="n">
-        <x:v>5245</x:v>
+        <x:v>5244</x:v>
       </x:c>
       <x:c r="DP5" s="4" t="n">
         <x:v>5184</x:v>
@@ -2402,34 +2411,34 @@
         <x:v>6494</x:v>
       </x:c>
       <x:c r="DT5" s="4" t="n">
-        <x:v>7211</x:v>
+        <x:v>7210</x:v>
       </x:c>
       <x:c r="DU5" s="4" t="n">
         <x:v>6852</x:v>
       </x:c>
       <x:c r="DV5" s="4" t="n">
-        <x:v>6640</x:v>
+        <x:v>6639</x:v>
       </x:c>
       <x:c r="DW5" s="4" t="n">
         <x:v>7541</x:v>
       </x:c>
       <x:c r="DX5" s="4" t="n">
-        <x:v>7614</x:v>
+        <x:v>7613</x:v>
       </x:c>
       <x:c r="DY5" s="4" t="n">
-        <x:v>7325</x:v>
+        <x:v>7324</x:v>
       </x:c>
       <x:c r="DZ5" s="4" t="n">
         <x:v>7122</x:v>
       </x:c>
       <x:c r="EA5" s="4" t="n">
-        <x:v>7422</x:v>
+        <x:v>7421</x:v>
       </x:c>
       <x:c r="EB5" s="4" t="n">
         <x:v>7677</x:v>
       </x:c>
       <x:c r="EC5" s="4" t="n">
-        <x:v>6841</x:v>
+        <x:v>6840</x:v>
       </x:c>
       <x:c r="ED5" s="4" t="n">
         <x:v>6547</x:v>
@@ -2441,16 +2450,16 @@
         <x:v>6692</x:v>
       </x:c>
       <x:c r="EG5" s="4" t="n">
-        <x:v>6920</x:v>
+        <x:v>6919</x:v>
       </x:c>
       <x:c r="EH5" s="4" t="n">
-        <x:v>6899</x:v>
+        <x:v>6898</x:v>
       </x:c>
       <x:c r="EI5" s="4" t="n">
-        <x:v>6465</x:v>
+        <x:v>6464</x:v>
       </x:c>
       <x:c r="EJ5" s="4" t="n">
-        <x:v>6874</x:v>
+        <x:v>6873</x:v>
       </x:c>
       <x:c r="EK5" s="4" t="n">
         <x:v>6198</x:v>
@@ -2462,34 +2471,34 @@
         <x:v>8598</x:v>
       </x:c>
       <x:c r="EN5" s="4" t="n">
-        <x:v>7176</x:v>
+        <x:v>7175</x:v>
       </x:c>
       <x:c r="EO5" s="4" t="n">
-        <x:v>6773</x:v>
+        <x:v>6772</x:v>
       </x:c>
       <x:c r="EP5" s="4" t="n">
         <x:v>6598</x:v>
       </x:c>
       <x:c r="EQ5" s="4" t="n">
-        <x:v>8537</x:v>
+        <x:v>8536</x:v>
       </x:c>
       <x:c r="ER5" s="4" t="n">
-        <x:v>9002</x:v>
+        <x:v>9001</x:v>
       </x:c>
       <x:c r="ES5" s="4" t="n">
-        <x:v>8152</x:v>
+        <x:v>8151</x:v>
       </x:c>
       <x:c r="ET5" s="4" t="n">
-        <x:v>7235</x:v>
+        <x:v>7236</x:v>
       </x:c>
       <x:c r="EU5" s="4" t="n">
-        <x:v>10867</x:v>
+        <x:v>10866</x:v>
       </x:c>
       <x:c r="EV5" s="4" t="n">
         <x:v>8487</x:v>
       </x:c>
       <x:c r="EW5" s="4" t="n">
-        <x:v>7565</x:v>
+        <x:v>7564</x:v>
       </x:c>
       <x:c r="EX5" s="4" t="n">
         <x:v>6617</x:v>
@@ -2504,7 +2513,7 @@
         <x:v>7444</x:v>
       </x:c>
       <x:c r="FB5" s="4" t="n">
-        <x:v>7863</x:v>
+        <x:v>7861</x:v>
       </x:c>
       <x:c r="FC5" s="4" t="n">
         <x:v>8505</x:v>
@@ -2516,244 +2525,247 @@
         <x:v>6844</x:v>
       </x:c>
       <x:c r="FF5" s="4" t="n">
-        <x:v>6847</x:v>
+        <x:v>6845</x:v>
       </x:c>
       <x:c r="FG5" s="4" t="n">
-        <x:v>8682</x:v>
+        <x:v>8736</x:v>
       </x:c>
       <x:c r="FH5" s="4" t="n">
         <x:v>6690</x:v>
       </x:c>
       <x:c r="FI5" s="4" t="n">
-        <x:v>6793</x:v>
+        <x:v>6792</x:v>
       </x:c>
       <x:c r="FJ5" s="4" t="n">
-        <x:v>6051</x:v>
+        <x:v>6046</x:v>
       </x:c>
       <x:c r="FK5" s="4" t="n">
-        <x:v>8283</x:v>
+        <x:v>8317</x:v>
       </x:c>
       <x:c r="FL5" s="4" t="n">
-        <x:v>8062</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:168">
+        <x:v>8026</x:v>
+      </x:c>
+      <x:c r="FM5" s="4" t="n">
+        <x:v>6810</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:169">
       <x:c r="A7" s="5" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:169">
+      <x:c r="A8" s="5" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:169">
+      <x:c r="A9" s="5" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:169">
+      <x:c r="A11" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:169">
+      <x:c r="A12" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:169">
+      <x:c r="A13" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:169">
+      <x:c r="A14" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:169">
+      <x:c r="A15" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:169">
+      <x:c r="A17" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:169">
+      <x:c r="A18" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:169">
+      <x:c r="A20" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:169">
+      <x:c r="A21" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:169">
+      <x:c r="A22" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:169">
+      <x:c r="A23" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:169">
+      <x:c r="A24" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:169">
+      <x:c r="A25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:169">
+      <x:c r="A26" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:169">
+      <x:c r="A27" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:169">
+      <x:c r="A28" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:169">
+      <x:c r="A29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:169">
+      <x:c r="A30" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:169">
+      <x:c r="A33" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:169">
+      <x:c r="A34" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:169">
+      <x:c r="A35" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:169">
+      <x:c r="A36" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:169">
+      <x:c r="A37" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:169">
+      <x:c r="A38" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:169">
+      <x:c r="A39" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:169">
+      <x:c r="A40" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:169">
+      <x:c r="A41" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:169">
+      <x:c r="A42" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:169">
+      <x:c r="A44" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:169">
+      <x:c r="A45" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:169">
+      <x:c r="A46" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:169">
+      <x:c r="A47" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:168">
-      <x:c r="A8" s="5" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:168">
-      <x:c r="A9" s="5" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:168">
-      <x:c r="A11" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:168">
-      <x:c r="A12" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:168">
-      <x:c r="A13" s="0" t="s">
+    <x:row r="48" spans="1:169">
+      <x:c r="A48" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:169">
+      <x:c r="A51" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:168">
-      <x:c r="A14" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:168">
-      <x:c r="A15" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:168">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="52" spans="1:169">
+      <x:c r="A52" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:169">
+      <x:c r="A53" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:168">
-      <x:c r="A18" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:168">
-      <x:c r="A20" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:168">
-      <x:c r="A21" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:168">
-      <x:c r="A22" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:168">
-      <x:c r="A23" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:168">
-      <x:c r="A24" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:168">
-      <x:c r="A25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:168">
-      <x:c r="A26" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:168">
-      <x:c r="A27" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:168">
-      <x:c r="A28" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:168">
-      <x:c r="A29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:168">
-      <x:c r="A30" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:168">
-      <x:c r="A33" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:168">
-      <x:c r="A34" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:168">
-      <x:c r="A35" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:168">
-      <x:c r="A36" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:168">
-      <x:c r="A37" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:168">
-      <x:c r="A38" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:168">
-      <x:c r="A39" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:168">
-      <x:c r="A40" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:168">
-      <x:c r="A41" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:168">
-      <x:c r="A42" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:168">
-      <x:c r="A44" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:168">
-      <x:c r="A45" s="0" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:168">
-      <x:c r="A46" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:168">
-      <x:c r="A47" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:168">
-      <x:c r="A48" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:168">
-      <x:c r="A51" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:168">
-      <x:c r="A52" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:168">
-      <x:c r="A53" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:168">
+    <x:row r="54" spans="1:169">
       <x:c r="A54" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:168">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:169">
       <x:c r="A58" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:168">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:169">
       <x:c r="A60" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:168">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:169">
       <x:c r="A61" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:168">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:169">
       <x:c r="A63" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:168">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:169">
       <x:c r="A64" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
